--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_10_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_10_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>168121.5722513784</v>
+        <v>165558.5519154738</v>
       </c>
     </row>
     <row r="7">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>106.5908076132621</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>204.0021640799231</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>237.4137133652764</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -820,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>115.9933220749479</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>35.3341501939824</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>233.4716947511249</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>352.5364503839262</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>92.83156789269626</v>
+        <v>92.83156789269627</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705016</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,25 +1054,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>161.8015669322319</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>92.19529564086086</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,13 +1133,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1148,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>72.01333343395781</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,10 +1187,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>135.1110683069393</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269626</v>
+        <v>92.83156789269627</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705016</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>101.5575724195737</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>55.55635901818192</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>155.9070871514926</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,19 +1531,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>20.3842717819797</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>4.019807611472247</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>155.8096229103346</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1895,7 +1895,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>23.41986852521065</v>
+        <v>102.1557845699798</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2059,10 +2059,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238297</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2135,7 +2135,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819381</v>
       </c>
       <c r="C22" t="n">
-        <v>95.12712756824166</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>103.1686991936185</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>27.02919805176109</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2956,16 +2956,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,13 +3241,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>285.5970594671152</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1811.228449180406</v>
+        <v>527.8767859460534</v>
       </c>
       <c r="C2" t="n">
-        <v>1442.265932239995</v>
+        <v>158.9142690056416</v>
       </c>
       <c r="D2" t="n">
-        <v>1084.000233633244</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E2" t="n">
-        <v>1084.000233633244</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F2" t="n">
-        <v>673.0143288436366</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G2" t="n">
-        <v>257.3095785679255</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
         <v>51.24678656800311</v>
@@ -4328,19 +4328,19 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816085</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O2" t="n">
         <v>2055.22848474084</v>
@@ -4358,22 +4358,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2437.640120926626</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2437.640120926626</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2437.640120926626</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>2197.828289244528</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="Y2" t="n">
-        <v>2197.828289244528</v>
+        <v>527.8767859460534</v>
       </c>
     </row>
     <row r="3">
@@ -4395,13 +4395,13 @@
         <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756899</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182521</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
@@ -4410,25 +4410,25 @@
         <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>298.3188265310612</v>
       </c>
       <c r="L3" t="n">
-        <v>932.4978103100998</v>
+        <v>846.3061319081672</v>
       </c>
       <c r="M3" t="n">
-        <v>1295.75982926932</v>
+        <v>1480.485115687206</v>
       </c>
       <c r="N3" t="n">
-        <v>1683.044957866265</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O3" t="n">
-        <v>2015.115393042427</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>762.0703369900128</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C4" t="n">
-        <v>762.0703369900128</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D4" t="n">
-        <v>611.9536975776771</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E4" t="n">
-        <v>464.040603995284</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>317.1506564973736</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
         <v>51.24678656800311</v>
@@ -4486,7 +4486,7 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
@@ -4513,25 +4513,25 @@
         <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.862713590079</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T4" t="n">
-        <v>1533.862713590079</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1244.744376093917</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V4" t="n">
-        <v>990.0598878880302</v>
+        <v>789.4460866465112</v>
       </c>
       <c r="W4" t="n">
-        <v>990.0598878880302</v>
+        <v>500.0289166095505</v>
       </c>
       <c r="X4" t="n">
-        <v>762.0703369900128</v>
+        <v>272.0393657115332</v>
       </c>
       <c r="Y4" t="n">
-        <v>762.0703369900128</v>
+        <v>51.24678656800311</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1213.292347699871</v>
+        <v>842.8595545333294</v>
       </c>
       <c r="C5" t="n">
-        <v>844.329830759459</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="D5" t="n">
-        <v>844.329830759459</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="E5" t="n">
-        <v>844.329830759459</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F5" t="n">
-        <v>433.3439259698515</v>
+        <v>466.9515368437142</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362813</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816077</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872908</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740838</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764995</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926624</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532449</v>
       </c>
       <c r="U5" t="n">
-        <v>2308.758267664335</v>
+        <v>2228.894479532449</v>
       </c>
       <c r="V5" t="n">
-        <v>2308.758267664335</v>
+        <v>1993.064484834343</v>
       </c>
       <c r="W5" t="n">
-        <v>1955.989612394221</v>
+        <v>1993.064484834343</v>
       </c>
       <c r="X5" t="n">
-        <v>1955.989612394221</v>
+        <v>1619.598726573263</v>
       </c>
       <c r="Y5" t="n">
-        <v>1599.892187763993</v>
+        <v>1229.459394597451</v>
       </c>
     </row>
     <row r="6">
@@ -4638,34 +4638,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500112</v>
       </c>
       <c r="K6" t="n">
-        <v>590.2049751143496</v>
+        <v>298.3188265310611</v>
       </c>
       <c r="L6" t="n">
-        <v>884.9085321458213</v>
+        <v>593.0223835625325</v>
       </c>
       <c r="M6" t="n">
-        <v>1248.170551105041</v>
+        <v>1227.201367341571</v>
       </c>
       <c r="N6" t="n">
-        <v>1635.455679701987</v>
+        <v>1861.380351120609</v>
       </c>
       <c r="O6" t="n">
-        <v>1967.526114878148</v>
+        <v>2193.45078629677</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2440.633520129067</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2555.949435236613</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>768.6303371471284</v>
+        <v>383.6188956900837</v>
       </c>
       <c r="C7" t="n">
-        <v>768.6303371471284</v>
+        <v>214.6827127621767</v>
       </c>
       <c r="D7" t="n">
-        <v>768.6303371471284</v>
+        <v>214.6827127621767</v>
       </c>
       <c r="E7" t="n">
-        <v>620.7172435647353</v>
+        <v>214.6827127621767</v>
       </c>
       <c r="F7" t="n">
-        <v>473.8272960668249</v>
+        <v>214.6827127621767</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312191</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020474</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693231</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096583</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4747,28 +4747,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.23396574994</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T7" t="n">
-        <v>1337.23396574994</v>
+        <v>1216.838891429093</v>
       </c>
       <c r="U7" t="n">
-        <v>1244.107404496546</v>
+        <v>927.7205539329311</v>
       </c>
       <c r="V7" t="n">
-        <v>989.4229162906586</v>
+        <v>673.0360657270443</v>
       </c>
       <c r="W7" t="n">
-        <v>989.4229162906586</v>
+        <v>383.6188956900837</v>
       </c>
       <c r="X7" t="n">
-        <v>989.4229162906586</v>
+        <v>383.6188956900837</v>
       </c>
       <c r="Y7" t="n">
-        <v>768.6303371471284</v>
+        <v>383.6188956900837</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1617.332751740275</v>
+        <v>1694.732133680698</v>
       </c>
       <c r="C8" t="n">
-        <v>1248.370234799863</v>
+        <v>1694.732133680698</v>
       </c>
       <c r="D8" t="n">
-        <v>1248.370234799863</v>
+        <v>1336.466435073948</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.370234799863</v>
+        <v>950.6781824757034</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>539.6922776860958</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>123.9875274103847</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926624</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926624</v>
       </c>
       <c r="U8" t="n">
-        <v>2301.16429435396</v>
+        <v>2437.640120926624</v>
       </c>
       <c r="V8" t="n">
-        <v>1970.101407010389</v>
+        <v>2437.640120926624</v>
       </c>
       <c r="W8" t="n">
-        <v>1617.332751740275</v>
+        <v>2084.87146565651</v>
       </c>
       <c r="X8" t="n">
-        <v>1617.332751740275</v>
+        <v>2084.87146565651</v>
       </c>
       <c r="Y8" t="n">
-        <v>1617.332751740275</v>
+        <v>1694.732133680698</v>
       </c>
     </row>
     <row r="9">
@@ -4875,34 +4875,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.427330237016</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>423.1489515180658</v>
       </c>
       <c r="L9" t="n">
-        <v>932.4978103100998</v>
+        <v>717.8525085495373</v>
       </c>
       <c r="M9" t="n">
-        <v>1295.75982926932</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N9" t="n">
-        <v>1683.044957866265</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O9" t="n">
-        <v>2015.115393042427</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>684.8214259065184</v>
+        <v>514.036292340028</v>
       </c>
       <c r="C10" t="n">
-        <v>515.8852429786115</v>
+        <v>514.036292340028</v>
       </c>
       <c r="D10" t="n">
-        <v>515.8852429786115</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E10" t="n">
-        <v>367.9721493962184</v>
+        <v>366.1231987576348</v>
       </c>
       <c r="F10" t="n">
-        <v>367.9721493962184</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312191</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020474</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693231</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096583</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4987,25 +4987,25 @@
         <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.862713590079</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
-        <v>1533.862713590079</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1244.744376093917</v>
+        <v>1058.137950582876</v>
       </c>
       <c r="V10" t="n">
-        <v>1244.744376093917</v>
+        <v>803.4534623769887</v>
       </c>
       <c r="W10" t="n">
-        <v>1244.744376093917</v>
+        <v>514.036292340028</v>
       </c>
       <c r="X10" t="n">
-        <v>1087.262469880288</v>
+        <v>514.036292340028</v>
       </c>
       <c r="Y10" t="n">
-        <v>866.4698907367581</v>
+        <v>514.036292340028</v>
       </c>
     </row>
     <row r="11">
@@ -5021,28 +5021,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5057,7 +5057,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5121,22 +5121,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>869.9745311434712</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C13" t="n">
-        <v>701.0383482155643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D13" t="n">
-        <v>550.9217088032285</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E13" t="n">
-        <v>403.0086152208354</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>256.118667722925</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2442.902671851501</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2260.047837506405</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2040.446372529346</v>
       </c>
       <c r="U13" t="n">
-        <v>2044.506784258106</v>
+        <v>1751.371145873544</v>
       </c>
       <c r="V13" t="n">
-        <v>1789.822296052219</v>
+        <v>1496.686657667657</v>
       </c>
       <c r="W13" t="n">
-        <v>1500.405126015258</v>
+        <v>1207.269487630696</v>
       </c>
       <c r="X13" t="n">
-        <v>1272.415575117241</v>
+        <v>979.2799367326791</v>
       </c>
       <c r="Y13" t="n">
-        <v>1051.622995973711</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>945.402603663004</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654818</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5510,25 +5510,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.2707707770319</v>
+        <v>513.8536007400696</v>
       </c>
       <c r="C19" t="n">
-        <v>803.2707707770319</v>
+        <v>344.9174178121627</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5707,16 +5707,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138395</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703094</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5738,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400704</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121635</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121635</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5975,10 +5975,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>542.9134462654469</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M24" t="n">
-        <v>1140.291933891999</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N24" t="n">
-        <v>1767.889897446606</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,10 +6212,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6306,25 +6306,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6364,19 +6364,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6449,16 +6449,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2341.919755080347</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6649,22 +6649,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6780,25 +6780,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6889,19 +6889,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.979202260897</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1434.29471405501</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7075,16 +7075,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,19 +7397,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7418,10 +7418,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2530.951795518647</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7549,16 +7549,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7831,25 +7831,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -7985,7 +7985,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.477928890381008e-12</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -8061,10 +8061,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621887</v>
+        <v>255.8421700460955</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179985</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>162.0073097921339</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154992</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,19 +8292,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>168.7434581780643</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>273.6534998179983</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8313,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>27.39221874048099</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>342.9044714621887</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>168.7434581780658</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>186.5911984019042</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9182,7 +9182,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9653,10 +9653,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9890,7 +9890,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -22556,16 +22556,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>97.01638848248221</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247052</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,10 +22598,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22711,7 +22711,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>129.3141767694982</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22723,7 +22723,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23419,19 +23419,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>145.1398665102892</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>62.35543909864944</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>11.43719818829325</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016457</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>125.1956044930006</v>
+        <v>46.45968844823258</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>72.11969353038617</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>43.26526345295068</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>45.44677382459312</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>138.4949402405078</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24844,16 +24844,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,13 +25129,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0.5874149221289713</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>317255.876140686</v>
+        <v>317255.8761406863</v>
       </c>
       <c r="C2" t="n">
         <v>348942.7521923205</v>
       </c>
       <c r="D2" t="n">
-        <v>348942.7521923203</v>
+        <v>348942.7521923204</v>
       </c>
       <c r="E2" t="n">
+        <v>343037.3048682528</v>
+      </c>
+      <c r="F2" t="n">
+        <v>343037.3048682528</v>
+      </c>
+      <c r="G2" t="n">
+        <v>343037.3048682526</v>
+      </c>
+      <c r="H2" t="n">
+        <v>343037.3048682528</v>
+      </c>
+      <c r="I2" t="n">
         <v>343037.3048682527</v>
       </c>
-      <c r="F2" t="n">
+      <c r="J2" t="n">
+        <v>343037.3048682528</v>
+      </c>
+      <c r="K2" t="n">
+        <v>343037.3048682528</v>
+      </c>
+      <c r="L2" t="n">
+        <v>343037.3048682529</v>
+      </c>
+      <c r="M2" t="n">
+        <v>343037.3048682529</v>
+      </c>
+      <c r="N2" t="n">
         <v>343037.3048682526</v>
       </c>
-      <c r="G2" t="n">
-        <v>343037.3048682527</v>
-      </c>
-      <c r="H2" t="n">
-        <v>343037.3048682526</v>
-      </c>
-      <c r="I2" t="n">
-        <v>343037.3048682526</v>
-      </c>
-      <c r="J2" t="n">
-        <v>343037.3048682526</v>
-      </c>
-      <c r="K2" t="n">
-        <v>343037.3048682526</v>
-      </c>
-      <c r="L2" t="n">
-        <v>343037.3048682527</v>
-      </c>
-      <c r="M2" t="n">
-        <v>343037.3048682527</v>
-      </c>
-      <c r="N2" t="n">
-        <v>343037.3048682529</v>
-      </c>
       <c r="O2" t="n">
-        <v>343037.3048682527</v>
+        <v>343037.3048682528</v>
       </c>
       <c r="P2" t="n">
-        <v>343037.3048682527</v>
+        <v>343037.3048682528</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245459</v>
+        <v>507485.4416245462</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289268</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89354.8431189598</v>
+        <v>89354.84311895995</v>
       </c>
       <c r="C4" t="n">
         <v>131909.726831625</v>
       </c>
       <c r="D4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316251</v>
       </c>
       <c r="E4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="F4" t="n">
         <v>6897.42449670736</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>6897.424496707362</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6897.42449670736</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6897.424496707368</v>
+      </c>
+      <c r="J4" t="n">
         <v>6897.424496707359</v>
       </c>
-      <c r="G4" t="n">
+      <c r="K4" t="n">
+        <v>6897.424496707352</v>
+      </c>
+      <c r="L4" t="n">
         <v>6897.424496707359</v>
       </c>
-      <c r="H4" t="n">
-        <v>6897.424496707368</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6897.424496707363</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6897.424496707369</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6897.424496707369</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6897.42449670736</v>
-      </c>
       <c r="M4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707373</v>
       </c>
       <c r="N4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707372</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.424496707368</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="P4" t="n">
         <v>6897.42449670736</v>
@@ -26470,10 +26470,10 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984469</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984469</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-979788.522994038</v>
+        <v>-979974.9163825768</v>
       </c>
       <c r="C6" t="n">
-        <v>124095.2529208508</v>
+        <v>124095.2529208507</v>
       </c>
       <c r="D6" t="n">
         <v>124095.2529208506</v>
       </c>
       <c r="E6" t="n">
-        <v>-272468.0910769076</v>
+        <v>-272502.8290023436</v>
       </c>
       <c r="F6" t="n">
-        <v>235017.3505476381</v>
+        <v>234982.6126222026</v>
       </c>
       <c r="G6" t="n">
-        <v>235017.3505476382</v>
+        <v>234982.6126222024</v>
       </c>
       <c r="H6" t="n">
-        <v>235017.3505476381</v>
+        <v>234982.6126222027</v>
       </c>
       <c r="I6" t="n">
-        <v>235017.3505476381</v>
+        <v>234982.6126222024</v>
       </c>
       <c r="J6" t="n">
-        <v>67412.17273765559</v>
+        <v>67377.43481222005</v>
       </c>
       <c r="K6" t="n">
-        <v>235017.3505476381</v>
+        <v>234982.6126222027</v>
       </c>
       <c r="L6" t="n">
-        <v>235017.3505476383</v>
+        <v>234982.6126222027</v>
       </c>
       <c r="M6" t="n">
-        <v>102410.0568187116</v>
+        <v>102375.318893276</v>
       </c>
       <c r="N6" t="n">
-        <v>235017.3505476385</v>
+        <v>234982.6126222024</v>
       </c>
       <c r="O6" t="n">
-        <v>235017.3505476381</v>
+        <v>234982.6126222027</v>
       </c>
       <c r="P6" t="n">
-        <v>235017.3505476382</v>
+        <v>234982.6126222026</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.064892117539</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175388</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175388</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26790,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.064892117539</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.910608224135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>248.0922340074208</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>132.3173873131927</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,22 +27540,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>17.11978587707097</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>50.3132779698563</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>216.8034931298456</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247055</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>94.28056371900996</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>33.70148827212739</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,25 +27774,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>4.505033112572249</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195737</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>194.0318584803397</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,13 +27853,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>229.0052191284475</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247055</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,10 +27907,10 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>115.9341818215227</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,13 +28020,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28059,25 +28059,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>230.6707951030187</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>69.80256823754453</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28725,7 +28725,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -28779,7 +28779,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -31042,7 +31042,7 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336177</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
@@ -31060,7 +31060,7 @@
         <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342222</v>
       </c>
       <c r="O2" t="n">
         <v>632.6811099166594</v>
@@ -31075,13 +31075,13 @@
         <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745095</v>
       </c>
       <c r="T2" t="n">
         <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,7 +31118,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H3" t="n">
         <v>19.4038763438002</v>
@@ -31130,22 +31130,22 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L3" t="n">
         <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040587</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.538811676207</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405673</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378624</v>
       </c>
       <c r="Q3" t="n">
         <v>256.462496416876</v>
@@ -31197,7 +31197,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H4" t="n">
         <v>14.97566335231072</v>
@@ -31212,10 +31212,10 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227907</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067958</v>
@@ -31230,13 +31230,13 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759584</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.19689343106956</v>
       </c>
       <c r="U4" t="n">
         <v>0.09187523529024984</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.755034742181058</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336176</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.7038799491898</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857141</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767378</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730001</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342221</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166591</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190642</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147049</v>
       </c>
       <c r="R5" t="n">
         <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745093</v>
       </c>
       <c r="T5" t="n">
         <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,34 +31355,34 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H6" t="n">
         <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436492</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575841</v>
+        <v>189.817847557584</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177241</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040585</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762069</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405672</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378623</v>
       </c>
       <c r="Q6" t="n">
         <v>256.462496416876</v>
@@ -31391,10 +31391,10 @@
         <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.318536019979</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000169</v>
       </c>
       <c r="U6" t="n">
         <v>0.1321789941675763</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231071</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335768</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.6942511682318</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227906</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N7" t="n">
         <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154671</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169136</v>
       </c>
       <c r="Q7" t="n">
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759582</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523477</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069558</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024981</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.755034742181058</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336176</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.7038799491898</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857141</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767378</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730001</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342221</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166591</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190642</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147049</v>
       </c>
       <c r="R8" t="n">
         <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745093</v>
       </c>
       <c r="T8" t="n">
         <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,34 +31592,34 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H9" t="n">
         <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436492</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>189.817847557584</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177241</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040585</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762069</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405672</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378623</v>
       </c>
       <c r="Q9" t="n">
         <v>256.462496416876</v>
@@ -31628,10 +31628,10 @@
         <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.318536019979</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000169</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675763</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231071</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335768</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.6942511682318</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227906</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154671</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169136</v>
       </c>
       <c r="Q10" t="n">
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759582</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523477</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069558</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024981</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31841,13 +31841,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>430.400187030115</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31856,10 +31856,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32093,13 +32093,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>290.1088399635148</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32312,13 +32312,13 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32330,13 +32330,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>399.4395445221152</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,34 +32546,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,34 +32783,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>254.8897444730604</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32959,7 +32959,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
         <v>790.8204499236507</v>
@@ -33026,28 +33026,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>454.5879800486398</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,7 +33260,7 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
@@ -33269,7 +33269,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,13 +33278,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>316.2462973459355</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33500,19 +33500,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>454.5879800486398</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33521,7 +33521,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33655,7 +33655,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33731,22 +33731,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>422.1299181110993</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33758,7 +33758,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,22 +33971,22 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>303.4297552732313</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -33995,7 +33995,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34208,10 +34208,10 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>168.0123247135882</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34381,7 +34381,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236507</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>536.8001439125376</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34699,16 +34699,16 @@
         <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407336</v>
       </c>
       <c r="L2" t="n">
         <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457291</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376313</v>
       </c>
       <c r="O2" t="n">
         <v>402.5828984949726</v>
@@ -34720,7 +34720,7 @@
         <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939898</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091737</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>186.5874962434847</v>
       </c>
       <c r="L3" t="n">
+        <v>553.5225306839455</v>
+      </c>
+      <c r="M3" t="n">
         <v>640.5848321000389</v>
       </c>
-      <c r="M3" t="n">
-        <v>366.9313322820404</v>
-      </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.1970995928738</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961229</v>
       </c>
       <c r="P3" t="n">
-        <v>411.6868389156661</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870591</v>
       </c>
       <c r="K4" t="n">
         <v>173.424759342349</v>
@@ -34863,7 +34863,7 @@
         <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860244</v>
@@ -34872,7 +34872,7 @@
         <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q4" t="n">
         <v>54.881755458054</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225035</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407335</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067505</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457273</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376312</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949724</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637946</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402555</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939893</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091734</v>
       </c>
       <c r="K6" t="n">
-        <v>355.3309544215491</v>
+        <v>186.5874962434847</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.68036063785</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961228</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235321</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977091</v>
+        <v>6.454437538931039</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870588</v>
       </c>
       <c r="K7" t="n">
         <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.0112915831068</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N7" t="n">
         <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.6644876295068</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805397</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225035</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407335</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067505</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457273</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376312</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949724</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637946</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402555</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939893</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>186.5874962434847</v>
       </c>
       <c r="L9" t="n">
-        <v>640.5848321000389</v>
+        <v>297.68036063785</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>535.674790460106</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.1970995928737</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961228</v>
       </c>
       <c r="P9" t="n">
-        <v>436.2707275254364</v>
+        <v>249.6795291235321</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977087</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870588</v>
       </c>
       <c r="K10" t="n">
         <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.0112915831068</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.6644876295068</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805397</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35489,13 +35489,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>291.8458072502408</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35504,10 +35504,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35741,13 +35741,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35902,7 +35902,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35978,13 +35978,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36373,10 +36373,10 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>116.3353646931863</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36607,10 +36607,10 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924728</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36917,7 +36917,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,13 +36926,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>176.264523259914</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37148,19 +37148,19 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37169,7 +37169,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37379,22 +37379,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>283.5755383312251</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37619,22 +37619,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>160.8335108287869</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37643,7 +37643,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38029,7 +38029,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>394.6661099905193</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
